--- a/out/dimension_1/deba4/stat.xlsx
+++ b/out/dimension_1/deba4/stat.xlsx
@@ -1047,253 +1047,253 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1600</v>
+        <v>56800</v>
       </c>
       <c r="C3">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07936507936507936</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J3">
-        <v>0.9206349206349206</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K3">
-        <v>1500</v>
+        <v>47500</v>
       </c>
       <c r="L3">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.06756756756756757</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S3">
-        <v>0.9324324324324325</v>
+        <v>0.5</v>
       </c>
       <c r="T3">
-        <v>1400</v>
+        <v>114800</v>
       </c>
       <c r="U3">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>45100</v>
+      </c>
+      <c r="AD3">
+        <v>8</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0.25</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0.25</v>
+      </c>
+      <c r="AK3">
+        <v>0.75</v>
+      </c>
+      <c r="AL3">
+        <v>49500</v>
+      </c>
+      <c r="AM3">
         <v>6</v>
       </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>5</v>
-      </c>
-      <c r="Y3">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1.25</v>
-      </c>
-      <c r="AB3">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="AC3">
-        <v>1700</v>
-      </c>
-      <c r="AD3">
-        <v>50</v>
-      </c>
-      <c r="AE3">
-        <v>6</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>5</v>
-      </c>
-      <c r="AH3">
-        <v>0.12</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1.25</v>
-      </c>
-      <c r="AK3">
-        <v>0.88</v>
-      </c>
-      <c r="AL3">
-        <v>1800</v>
-      </c>
-      <c r="AM3">
-        <v>25</v>
-      </c>
       <c r="AN3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO3">
         <v>1</v>
       </c>
       <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0.25</v>
+      </c>
+      <c r="AT3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AU3">
+        <v>53600</v>
+      </c>
+      <c r="AV3">
         <v>3</v>
       </c>
-      <c r="AQ3">
-        <v>0.16</v>
-      </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
-      <c r="AS3">
-        <v>0.75</v>
-      </c>
-      <c r="AT3">
-        <v>0.84</v>
-      </c>
-      <c r="AU3">
-        <v>1400</v>
-      </c>
-      <c r="AV3">
-        <v>81</v>
-      </c>
       <c r="AW3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX3">
         <v>1</v>
       </c>
       <c r="AY3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
-        <v>0.06172839506172839</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BA3">
         <v>1</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="BC3">
-        <v>0.9382716049382716</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BD3">
-        <v>1900</v>
+        <v>56900</v>
       </c>
       <c r="BE3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BF3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG3">
         <v>1</v>
       </c>
       <c r="BH3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI3">
+        <v>0.5</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
         <v>0.25</v>
       </c>
-      <c r="BJ3">
-        <v>1</v>
-      </c>
-      <c r="BK3">
+      <c r="BL3">
         <v>0.5</v>
       </c>
-      <c r="BL3">
-        <v>0.75</v>
-      </c>
       <c r="BM3">
-        <v>1400</v>
+        <v>57900</v>
       </c>
       <c r="BN3">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="BO3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BP3">
         <v>1</v>
       </c>
       <c r="BQ3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BR3">
-        <v>0.06329113924050633</v>
+        <v>0.5</v>
       </c>
       <c r="BS3">
         <v>1</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="BU3">
-        <v>0.9367088607594937</v>
+        <v>0.5</v>
       </c>
       <c r="BV3">
-        <v>1400</v>
+        <v>49900</v>
       </c>
       <c r="BW3">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="BX3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BY3">
         <v>1</v>
       </c>
       <c r="BZ3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA3">
-        <v>0.07228915662650602</v>
+        <v>0.5</v>
       </c>
       <c r="CB3">
         <v>1</v>
       </c>
       <c r="CC3">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="CD3">
-        <v>0.927710843373494</v>
+        <v>0.5</v>
       </c>
       <c r="CE3">
-        <v>1900</v>
+        <v>55000</v>
       </c>
       <c r="CF3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CG3">
         <v>2</v>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="CJ3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="CK3">
         <v>1</v>
@@ -1314,61 +1314,61 @@
         <v>0.25</v>
       </c>
       <c r="CM3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="CN3">
-        <v>1600</v>
+        <v>58700</v>
       </c>
       <c r="CO3">
-        <v>55.3</v>
+        <v>4.1</v>
       </c>
       <c r="CP3">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="CQ3">
         <v>1</v>
       </c>
       <c r="CR3">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="CS3">
-        <v>0.12011644147844644</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="CT3">
         <v>1</v>
       </c>
       <c r="CU3">
-        <v>0.925</v>
+        <v>0.225</v>
       </c>
       <c r="CV3">
-        <v>0.8798835585215535</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="CW3">
-        <v>1400</v>
+        <v>45100</v>
       </c>
       <c r="CX3">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="CY3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CZ3">
         <v>1</v>
       </c>
       <c r="DA3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DC3">
+        <v>1</v>
+      </c>
+      <c r="DD3">
         <v>0.25</v>
       </c>
-      <c r="DC3">
-        <v>1</v>
-      </c>
-      <c r="DD3">
-        <v>1.25</v>
-      </c>
       <c r="DE3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="DF3">
         <v>100</v>
@@ -1379,91 +1379,91 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1400</v>
+        <v>17200</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.058823529411764705</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J4">
-        <v>0.9411764705882353</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="K4">
-        <v>1400</v>
+        <v>19400</v>
       </c>
       <c r="L4">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>0.06172839506172839</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S4">
-        <v>0.9382716049382716</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="T4">
-        <v>1400</v>
+        <v>41300</v>
       </c>
       <c r="U4">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="V4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <v>0.07317073170731707</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AB4">
-        <v>0.926829268292683</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="AC4">
-        <v>1500</v>
+        <v>9200</v>
       </c>
       <c r="AD4">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="AE4">
         <v>6</v>
@@ -1475,7 +1475,7 @@
         <v>5</v>
       </c>
       <c r="AH4">
-        <v>0.0759493670886076</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -1484,76 +1484,76 @@
         <v>1.25</v>
       </c>
       <c r="AK4">
-        <v>0.9240506329113924</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="AL4">
-        <v>3300</v>
+        <v>21400</v>
       </c>
       <c r="AM4">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AN4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO4">
         <v>1</v>
       </c>
       <c r="AP4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.08196721311475409</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AR4">
         <v>1</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT4">
-        <v>0.9180327868852459</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="AU4">
-        <v>1400</v>
+        <v>16000</v>
       </c>
       <c r="AV4">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="AW4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX4">
         <v>1</v>
       </c>
       <c r="AY4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ4">
-        <v>0.06172839506172839</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="BA4">
         <v>1</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BC4">
-        <v>0.9382716049382716</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="BD4">
-        <v>1700</v>
+        <v>35100</v>
       </c>
       <c r="BE4">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="BF4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG4">
         <v>1</v>
       </c>
       <c r="BH4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI4">
         <v>0.08333333333333333</v>
@@ -1562,124 +1562,124 @@
         <v>1</v>
       </c>
       <c r="BK4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BL4">
         <v>0.9166666666666666</v>
       </c>
       <c r="BM4">
-        <v>1400</v>
+        <v>25700</v>
       </c>
       <c r="BN4">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="BO4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP4">
         <v>1</v>
       </c>
       <c r="BQ4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BR4">
-        <v>0.0625</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="BS4">
         <v>1</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BU4">
-        <v>0.9375</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="BV4">
-        <v>1400</v>
+        <v>23300</v>
       </c>
       <c r="BW4">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="BX4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BY4">
         <v>1</v>
       </c>
       <c r="BZ4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CA4">
-        <v>0.07228915662650602</v>
+        <v>0.06</v>
       </c>
       <c r="CB4">
         <v>1</v>
       </c>
       <c r="CC4">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="CD4">
-        <v>0.927710843373494</v>
+        <v>0.94</v>
       </c>
       <c r="CE4">
-        <v>1800</v>
+        <v>28300</v>
       </c>
       <c r="CF4">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="CG4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH4">
         <v>1</v>
       </c>
       <c r="CI4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ4">
-        <v>0.09090909090909091</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="CK4">
         <v>1</v>
       </c>
       <c r="CL4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="CM4">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="CN4">
-        <v>1670</v>
+        <v>23690</v>
       </c>
       <c r="CO4">
-        <v>74.7</v>
+        <v>42.5</v>
       </c>
       <c r="CP4">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="CQ4">
         <v>1</v>
       </c>
       <c r="CR4">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="CS4">
-        <v>0.07223992123148305</v>
+        <v>0.08222167104925726</v>
       </c>
       <c r="CT4">
         <v>1</v>
       </c>
       <c r="CU4">
-        <v>1.075</v>
+        <v>0.625</v>
       </c>
       <c r="CV4">
-        <v>0.9277600787685168</v>
+        <v>0.917778328950743</v>
       </c>
       <c r="CW4">
-        <v>1400</v>
+        <v>9200</v>
       </c>
       <c r="CX4">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="CY4">
         <v>6</v>
@@ -1691,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="DB4">
-        <v>0.09090909090909091</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="DC4">
         <v>1</v>
@@ -1700,7 +1700,7 @@
         <v>1.25</v>
       </c>
       <c r="DE4">
-        <v>0.9090909090909091</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="DF4">
         <v>100</v>
@@ -1711,310 +1711,310 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16700</v>
+        <v>18500</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>0.1875</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0.75</v>
       </c>
       <c r="J5">
-        <v>0.8125</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K5">
-        <v>14900</v>
+        <v>21600</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5">
-        <v>0.03333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0.25</v>
       </c>
       <c r="S5">
-        <v>0.9666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="T5">
-        <v>14600</v>
+        <v>15600</v>
       </c>
       <c r="U5">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0.5</v>
+      </c>
+      <c r="AB5">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="AC5">
+        <v>17700</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0.2</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>0.25</v>
+      </c>
+      <c r="AK5">
+        <v>0.8</v>
+      </c>
+      <c r="AL5">
+        <v>25800</v>
+      </c>
+      <c r="AM5">
+        <v>9</v>
+      </c>
+      <c r="AN5">
+        <v>3</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>2</v>
+      </c>
+      <c r="AQ5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>0.5</v>
+      </c>
+      <c r="AT5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AU5">
+        <v>23300</v>
+      </c>
+      <c r="AV5">
+        <v>2</v>
+      </c>
+      <c r="AW5">
+        <v>2</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>0.25</v>
+      </c>
+      <c r="BC5">
         <v>0</v>
       </c>
-      <c r="Y5">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="AC5">
-        <v>28500</v>
-      </c>
-      <c r="AD5">
-        <v>23</v>
-      </c>
-      <c r="AE5">
-        <v>2</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>2</v>
-      </c>
-      <c r="AH5">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0.5</v>
-      </c>
-      <c r="AK5">
-        <v>0.9130434782608695</v>
-      </c>
-      <c r="AL5">
-        <v>33300</v>
-      </c>
-      <c r="AM5">
-        <v>20</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0.05</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0.95</v>
-      </c>
-      <c r="AU5">
-        <v>20600</v>
-      </c>
-      <c r="AV5">
-        <v>24</v>
-      </c>
-      <c r="AW5">
-        <v>1</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="BA5">
-        <v>1</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0.9583333333333334</v>
-      </c>
       <c r="BD5">
-        <v>11900</v>
+        <v>19500</v>
       </c>
       <c r="BE5">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="BF5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5">
         <v>2</v>
       </c>
       <c r="BI5">
-        <v>0.058823529411764705</v>
+        <v>0.25</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5">
         <v>0.5</v>
       </c>
       <c r="BL5">
-        <v>0.9411764705882353</v>
+        <v>0.75</v>
       </c>
       <c r="BM5">
-        <v>11700</v>
+        <v>18600</v>
       </c>
       <c r="BN5">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR5">
-        <v>0.037037037037037035</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5">
+        <v>0.75</v>
+      </c>
+      <c r="BU5">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="BV5">
+        <v>23600</v>
+      </c>
+      <c r="BW5">
+        <v>5</v>
+      </c>
+      <c r="BX5">
+        <v>2</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>0.4</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
         <v>0.25</v>
       </c>
-      <c r="BU5">
-        <v>0.9629629629629629</v>
-      </c>
-      <c r="BV5">
-        <v>11800</v>
-      </c>
-      <c r="BW5">
-        <v>28</v>
-      </c>
-      <c r="BX5">
+      <c r="CD5">
+        <v>0.6</v>
+      </c>
+      <c r="CE5">
+        <v>19700</v>
+      </c>
+      <c r="CF5">
+        <v>4</v>
+      </c>
+      <c r="CG5">
         <v>3</v>
       </c>
-      <c r="BY5">
-        <v>1</v>
-      </c>
-      <c r="BZ5">
-        <v>2</v>
-      </c>
-      <c r="CA5">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="CB5">
-        <v>1</v>
-      </c>
-      <c r="CC5">
-        <v>0.5</v>
-      </c>
-      <c r="CD5">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="CE5">
-        <v>42800</v>
-      </c>
-      <c r="CF5">
-        <v>15</v>
-      </c>
-      <c r="CG5">
-        <v>2</v>
-      </c>
       <c r="CH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI5">
         <v>2</v>
       </c>
       <c r="CJ5">
-        <v>0.13333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="CK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL5">
         <v>0.5</v>
       </c>
       <c r="CM5">
-        <v>0.8666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="CN5">
-        <v>20680</v>
+        <v>20390</v>
       </c>
       <c r="CO5">
-        <v>24.7</v>
+        <v>8.9</v>
       </c>
       <c r="CP5">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="CQ5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="CR5">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="CS5">
-        <v>0.07691266119974559</v>
+        <v>0.40949494949494947</v>
       </c>
       <c r="CT5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="CU5">
-        <v>0.325</v>
+        <v>0.45</v>
       </c>
       <c r="CV5">
-        <v>0.9230873388002545</v>
+        <v>0.5905050505050504</v>
       </c>
       <c r="CW5">
-        <v>11700</v>
+        <v>15600</v>
       </c>
       <c r="CX5">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="CY5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CZ5">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="DB5">
-        <v>0.1875</v>
+        <v>1</v>
       </c>
       <c r="DC5">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>0.75</v>
       </c>
       <c r="DE5">
-        <v>0.8125</v>
+        <v>0</v>
       </c>
       <c r="DF5">
         <v>100</v>
@@ -2043,10 +2043,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1400</v>
+        <v>18800</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2058,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>0.058823529411764705</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2067,13 +2067,13 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9411764705882353</v>
+        <v>0.9019607843137255</v>
       </c>
       <c r="K6">
-        <v>1400</v>
+        <v>15500</v>
       </c>
       <c r="L6">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -2085,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="P6">
-        <v>0.06172839506172839</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2094,67 +2094,67 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>0.9382716049382716</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="T6">
-        <v>1400</v>
+        <v>27300</v>
       </c>
       <c r="U6">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="V6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0.9056603773584906</v>
+      </c>
+      <c r="AC6">
+        <v>22900</v>
+      </c>
+      <c r="AD6">
+        <v>61</v>
+      </c>
+      <c r="AE6">
         <v>5</v>
       </c>
-      <c r="Y6">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>1.25</v>
-      </c>
-      <c r="AB6">
-        <v>0.926829268292683</v>
-      </c>
-      <c r="AC6">
-        <v>1400</v>
-      </c>
-      <c r="AD6">
-        <v>82</v>
-      </c>
-      <c r="AE6">
-        <v>6</v>
-      </c>
       <c r="AF6">
         <v>1</v>
       </c>
       <c r="AG6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6">
-        <v>0.07317073170731707</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="AI6">
         <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.926829268292683</v>
+        <v>0.9180327868852459</v>
       </c>
       <c r="AL6">
-        <v>5100</v>
+        <v>13500</v>
       </c>
       <c r="AM6">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="AN6">
         <v>5</v>
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="AQ6">
-        <v>0.060240963855421686</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="AR6">
         <v>1</v>
@@ -2175,13 +2175,13 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.9397590361445783</v>
+        <v>0.9137931034482759</v>
       </c>
       <c r="AU6">
-        <v>1400</v>
+        <v>10700</v>
       </c>
       <c r="AV6">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="AW6">
         <v>5</v>
@@ -2193,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="AZ6">
-        <v>0.06172839506172839</v>
+        <v>0.078125</v>
       </c>
       <c r="BA6">
         <v>1</v>
@@ -2202,13 +2202,13 @@
         <v>1</v>
       </c>
       <c r="BC6">
-        <v>0.9382716049382716</v>
+        <v>0.921875</v>
       </c>
       <c r="BD6">
-        <v>2400</v>
+        <v>42900</v>
       </c>
       <c r="BE6">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="BF6">
         <v>5</v>
@@ -2220,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="BI6">
-        <v>0.058823529411764705</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="BJ6">
         <v>1</v>
@@ -2229,13 +2229,13 @@
         <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9411764705882353</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="BM6">
-        <v>1400</v>
+        <v>37900</v>
       </c>
       <c r="BN6">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="BO6">
         <v>5</v>
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="BR6">
-        <v>0.0625</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="BS6">
         <v>1</v>
@@ -2256,115 +2256,115 @@
         <v>1</v>
       </c>
       <c r="BU6">
-        <v>0.9375</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="BV6">
-        <v>1400</v>
+        <v>11300</v>
       </c>
       <c r="BW6">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="BX6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BY6">
         <v>1</v>
       </c>
       <c r="BZ6">
+        <v>4</v>
+      </c>
+      <c r="CA6">
+        <v>0.078125</v>
+      </c>
+      <c r="CB6">
+        <v>1</v>
+      </c>
+      <c r="CC6">
+        <v>1</v>
+      </c>
+      <c r="CD6">
+        <v>0.921875</v>
+      </c>
+      <c r="CE6">
+        <v>15700</v>
+      </c>
+      <c r="CF6">
+        <v>60</v>
+      </c>
+      <c r="CG6">
         <v>5</v>
       </c>
-      <c r="CA6">
-        <v>0.07228915662650602</v>
-      </c>
-      <c r="CB6">
-        <v>1</v>
-      </c>
-      <c r="CC6">
-        <v>1.25</v>
-      </c>
-      <c r="CD6">
-        <v>0.927710843373494</v>
-      </c>
-      <c r="CE6">
-        <v>7500</v>
-      </c>
-      <c r="CF6">
-        <v>84</v>
-      </c>
-      <c r="CG6">
-        <v>4</v>
-      </c>
       <c r="CH6">
         <v>1</v>
       </c>
       <c r="CI6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CJ6">
-        <v>0.047619047619047616</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="CK6">
         <v>1</v>
       </c>
       <c r="CL6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="CM6">
-        <v>0.9523809523809523</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="CN6">
-        <v>2480</v>
+        <v>21650</v>
       </c>
       <c r="CO6">
-        <v>82.6</v>
+        <v>58.7</v>
       </c>
       <c r="CP6">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="CQ6">
         <v>1</v>
       </c>
       <c r="CR6">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="CS6">
-        <v>0.06300944804625956</v>
+        <v>0.08568397159971318</v>
       </c>
       <c r="CT6">
         <v>1</v>
       </c>
       <c r="CU6">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="CV6">
-        <v>0.9369905519537405</v>
+        <v>0.9143160284002869</v>
       </c>
       <c r="CW6">
-        <v>1400</v>
+        <v>10700</v>
       </c>
       <c r="CX6">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="CY6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CZ6">
         <v>1</v>
       </c>
       <c r="DA6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DB6">
-        <v>0.07317073170731707</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="DC6">
         <v>1</v>
       </c>
       <c r="DD6">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.926829268292683</v>
+        <v>0.9019607843137255</v>
       </c>
       <c r="DF6">
         <v>100</v>
